--- a/stage2_excels/PD/PD_kfold_RBFNN.xlsx
+++ b/stage2_excels/PD/PD_kfold_RBFNN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2526160690887587</v>
+        <v>0.2526160690887589</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03916058653596215</v>
+        <v>0.03916058653596284</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.002574357927626681</v>
+        <v>-0.00257435792762708</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006990542220532992</v>
+        <v>-0.006990542220532814</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01964384974013569</v>
+        <v>-0.01964384974013576</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03659084105704811</v>
+        <v>-0.03659084105704815</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08649045920507001</v>
+        <v>-0.08649045920506956</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1145679604041417</v>
+        <v>-0.1145679604041418</v>
       </c>
     </row>
     <row r="11">
@@ -558,41 +558,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_75</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2167137471599577</v>
+        <v>-0.2366199069553575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>hsv_h_percentile_75</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2366199069553575</v>
+        <v>-0.2472025231558012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>yuv_y_percentile_75</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.258667877882592</v>
+        <v>-0.2594768920114943</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_75</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2594768920114942</v>
+        <v>-0.2631132033552529</v>
       </c>
     </row>
     <row r="17">
@@ -602,27 +602,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.263942572840609</v>
+        <v>-0.2639425728406087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>luv_l_mean</t>
+          <t>lab_l_mean</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2907509547756034</v>
+        <v>-0.2903698795360429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>luv_l_mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2983163303864111</v>
+        <v>-0.2986876764737483</v>
       </c>
     </row>
     <row r="20">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3204467511368665</v>
+        <v>-0.3204467511368658</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3286151048196652</v>
+        <v>-0.3286151048196649</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.3761907479257981</v>
+        <v>-0.3761907479257982</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.3881908556088717</v>
+        <v>-0.3881908556088718</v>
       </c>
     </row>
     <row r="25">
@@ -682,47 +682,47 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.3980469372859568</v>
+        <v>-0.3980469372859569</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_u_percentile_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.4492035297888474</v>
+        <v>-0.4461153996683239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>lab_b_variance</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.487541344528619</v>
+        <v>-0.4492035297888471</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>lab_b_std_dev</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.4898108064937581</v>
+        <v>-0.4875413445286181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>yuv_u_percentile_25</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.510896550958121</v>
+        <v>-0.5137086378875682</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5414694646946715</v>
+        <v>-0.5399412681834214</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.5482869845095584</v>
+        <v>-0.5482869845095582</v>
       </c>
     </row>
     <row r="32">
@@ -762,67 +762,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.5697761776412488</v>
+        <v>-0.5697761776412482</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.6330606313369447</v>
+        <v>-0.5951042418799641</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>yuv_v_percentile_75</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.6428842765800454</v>
+        <v>-0.6256015025205554</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>lab_a_std_dev</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.642922805061841</v>
+        <v>-0.6330606313369447</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>lab_a_variance</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.6432433506495265</v>
+        <v>-0.6428842765800453</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.6538106358446256</v>
+        <v>-0.642922805061841</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>luv_l_std_dev</t>
+          <t>lab_b_mean</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.6943719398289578</v>
+        <v>-0.6538106358446247</v>
       </c>
     </row>
     <row r="40">
@@ -832,57 +832,57 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.694971673206326</v>
+        <v>-0.6949716732063261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>luv_l_std_dev</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.7046715206041035</v>
+        <v>-0.6949723041777551</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>luv_v_std_dev</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.723114272939646</v>
+        <v>-0.7046715206041038</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>luv_v_std_dev</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.726314231735165</v>
+        <v>-0.723114272939646</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>luv_l_variance</t>
+          <t>lab_l_variance</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.7271710711031845</v>
+        <v>-0.7306484779494836</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>luv_l_variance</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.7406512213217336</v>
+        <v>-0.7309264153897583</v>
       </c>
     </row>
     <row r="46">
@@ -892,97 +892,97 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.7425751273024895</v>
+        <v>-0.7328487037868827</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>luv_v_percentile_75</t>
+          <t>lab_l_median</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.7987149691058356</v>
+        <v>-0.7406512213217368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>luv_v_percentile_75</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.8014420160599475</v>
+        <v>-0.7987149691058357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>luv_v_mean</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.8449161958669056</v>
+        <v>-0.8066935732468036</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>luv_v_mean</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.8532075446703111</v>
+        <v>-0.8506809193169896</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_75</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.9687438924679894</v>
+        <v>-0.8532075446703112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>luv_v_variance</t>
+          <t>hsv_v_percentile_75</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.9786085727242634</v>
+        <v>-0.931466023325109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>luv_v_variance</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1.026311779372447</v>
+        <v>-0.9786085727242634</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lab_b_percentile_75</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.033789324679816</v>
+        <v>-1.026311779372445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lab_a_percentile_75</t>
+          <t>lab_b_percentile_75</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.056419922664968</v>
+        <v>-1.052594791545141</v>
       </c>
     </row>
     <row r="56">
@@ -992,17 +992,17 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1.067104103382443</v>
+        <v>-1.052831994719811</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>lab_a_percentile_75</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1.099376500534442</v>
+        <v>-1.056419922664968</v>
       </c>
     </row>
     <row r="58">
@@ -1012,137 +1012,137 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.110643523421406</v>
+        <v>-1.110643523421405</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>xyz_x_percentile_25</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1.148387046614136</v>
+        <v>-1.116860343874094</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>xyz_z_percentile_75</t>
+          <t>xyz_x_percentile_25</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1.17177230743583</v>
+        <v>-1.144489576425616</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>yuv_v_median</t>
+          <t>xyz_z_percentile_75</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.179304176595633</v>
+        <v>-1.17177230743583</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1.246683035967423</v>
+        <v>-1.179304176595633</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>luv_l_median</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1.302277982700236</v>
+        <v>-1.242868886680141</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>luv_l_median</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1.35292320114034</v>
+        <v>-1.302277982700234</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_25</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1.457809470400317</v>
+        <v>-1.35292320114034</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>hsv_v_percentile_25</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1.533627905189111</v>
+        <v>-1.457809470400315</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_25</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.558827659093429</v>
+        <v>-1.533627905189111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>luv_u_std_dev</t>
+          <t>hsv_s_percentile_25</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.564447022377882</v>
+        <v>-1.558827659093428</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>luv_u_std_dev</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1.599030706390233</v>
+        <v>-1.564447022377883</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1.606370564323153</v>
+        <v>-1.596609852537301</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>luv_u_median</t>
+          <t>lab_b_median</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1.612289599928249</v>
+        <v>-1.606370564323153</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.689688730588059</v>
+        <v>-1.68968873058806</v>
       </c>
     </row>
     <row r="73">
@@ -1182,87 +1182,97 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.818184047918916</v>
+        <v>-1.818184047918918</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>luv_u_variance</t>
+          <t>luv_u_median</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1.843413539047142</v>
+        <v>-1.821448797204074</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>luv_u_variance</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-2.266199448671554</v>
+        <v>-1.969143141240307</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-2.672229096066288</v>
+        <v>-2.266199448671554</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-2.706869056084065</v>
+        <v>-2.672229096066288</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-3.150424892063364</v>
+        <v>-2.706869056084065</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>lab_l_percentile_25</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-4.346632910540635</v>
+        <v>-3.188294559230034</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_25</t>
+          <t>lab_l_percentile_25</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-4.448029043226759</v>
+        <v>-4.366581314247315</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>yuv_y_percentile_25</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-4.541905258943774</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>luv_u_percentile_75</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>-4.879965863954591</v>
+      <c r="B84" t="n">
+        <v>-4.879965863954586</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/PD/PD_kfold_RBFNN.xlsx
+++ b/stage2_excels/PD/PD_kfold_RBFNN.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2526160690887589</v>
+        <v>0.2526160690887596</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03916058653596284</v>
+        <v>0.03916058653596188</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.00257435792762708</v>
+        <v>-0.002574357927627014</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006990542220532814</v>
+        <v>-0.006990542220532969</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01964384974013576</v>
+        <v>-0.01964384974013587</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03659084105704815</v>
+        <v>-0.0365908410570482</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08649045920506956</v>
+        <v>-0.08649045920507006</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.09068365448689553</v>
+        <v>-0.09068365448689561</v>
       </c>
     </row>
     <row r="10">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1381059653724605</v>
+        <v>-0.138105965372461</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2163382510882252</v>
+        <v>-0.216338251088225</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2366199069553575</v>
+        <v>-0.2366199069553579</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2472025231558012</v>
+        <v>-0.2472025231558014</v>
       </c>
     </row>
     <row r="15">
@@ -582,27 +582,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2594768920114943</v>
+        <v>-0.2594768920114942</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>luv_u_mean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2631132033552529</v>
+        <v>-0.2639425728406091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>luv_u_mean</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2639425728406087</v>
+        <v>-0.2824486666571432</v>
       </c>
     </row>
     <row r="18">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3204467511368658</v>
+        <v>-0.3204467511368666</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3286151048196649</v>
+        <v>-0.3286151048196665</v>
       </c>
     </row>
     <row r="23">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.3980469372859569</v>
+        <v>-0.3980469372859571</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.4461153996683239</v>
+        <v>-0.3984199349418548</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.4492035297888471</v>
+        <v>-0.4492035297888478</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.5137086378875682</v>
+        <v>-0.5137086378875684</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5399412681834214</v>
+        <v>-0.5399412681834201</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.5482869845095582</v>
+        <v>-0.5482869845095568</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.5565795696429047</v>
+        <v>-0.5565795696429044</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.5697761776412482</v>
+        <v>-0.5761175072437572</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.5951042418799641</v>
+        <v>-0.5951042418799625</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.6256015025205554</v>
+        <v>-0.6256015025205558</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.6330606313369447</v>
+        <v>-0.6330606313369436</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.6428842765800453</v>
+        <v>-0.6428842765800457</v>
       </c>
     </row>
     <row r="38">
@@ -822,27 +822,27 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.6538106358446247</v>
+        <v>-0.6497052032069957</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>luv_l_std_dev</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.6949716732063261</v>
+        <v>-0.6943719398289577</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>luv_l_std_dev</t>
+          <t>lab_l_std_dev</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.6949723041777551</v>
+        <v>-0.6949716732063262</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.7046715206041038</v>
+        <v>-0.7046715206041035</v>
       </c>
     </row>
     <row r="43">
@@ -868,51 +868,51 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>luv_l_variance</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.7306484779494836</v>
+        <v>-0.7271710711031842</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>luv_l_variance</t>
+          <t>luv_v_percentile_75</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.7309264153897583</v>
+        <v>-0.7292968599397017</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>lab_l_variance</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.7328487037868827</v>
+        <v>-0.7303000323277816</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.7406512213217368</v>
+        <v>-0.7425751273024895</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>luv_v_percentile_75</t>
+          <t>lab_l_median</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.7987149691058357</v>
+        <v>-0.7428313946960604</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.8066935732468036</v>
+        <v>-0.8014420160599496</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.8506809193169896</v>
+        <v>-0.8529346258572369</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.8532075446703112</v>
+        <v>-0.8532075446703111</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.931466023325109</v>
+        <v>-0.9766361917123063</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.9786085727242634</v>
+        <v>-0.9895267004457173</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.026311779372445</v>
+        <v>-1.026311779372447</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.052594791545141</v>
+        <v>-1.033789324679816</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1.052831994719811</v>
+        <v>-1.052831994719813</v>
       </c>
     </row>
     <row r="57">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.110643523421405</v>
+        <v>-1.110643523421406</v>
       </c>
     </row>
     <row r="59">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1.144489576425616</v>
+        <v>-1.144489576425614</v>
       </c>
     </row>
     <row r="61">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1.302277982700234</v>
+        <v>-1.302277982700235</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1.35292320114034</v>
+        <v>-1.352923201140342</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1.457809470400315</v>
+        <v>-1.457809470400317</v>
       </c>
     </row>
     <row r="67">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1.564447022377883</v>
+        <v>-1.564447022377882</v>
       </c>
     </row>
     <row r="70">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1.606370564323153</v>
+        <v>-1.606370564323155</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.68968873058806</v>
+        <v>-1.689688730588059</v>
       </c>
     </row>
     <row r="73">
@@ -1178,21 +1178,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>luv_u_median</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.818184047918918</v>
+        <v>-1.817620438929392</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>luv_u_median</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1.821448797204074</v>
+        <v>-1.818184047918914</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1.969143141240307</v>
+        <v>-1.969143141240308</v>
       </c>
     </row>
     <row r="78">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-2.706869056084065</v>
+        <v>-2.706869056084064</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-3.188294559230034</v>
+        <v>-3.188294559230033</v>
       </c>
     </row>
     <row r="82">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-4.541905258943774</v>
+        <v>-4.541905258943777</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-4.879965863954586</v>
+        <v>-4.879965863954591</v>
       </c>
     </row>
   </sheetData>
